--- a/ContentExportToolTestCases.xlsx
+++ b/ContentExportToolTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica.stockwell-alpe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ContentExportTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7C79A08-3FA0-480E-8980-867E7E9B11AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F032225-82C4-498E-B3AD-EBE05A809189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26445" windowHeight="8955" xr2:uid="{7B3E3C06-C045-4219-87FD-D758C5B29110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Test Case</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>14: Upload a file that does not have an Item Path field</t>
+  </si>
+  <si>
+    <t>AUDITS</t>
+  </si>
+  <si>
+    <t>Component Audit</t>
+  </si>
+  <si>
+    <t>Template Audit</t>
+  </si>
+  <si>
+    <t>PACKAGE EXPORT</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A5168B-A3F3-403C-88A9-8E677E66932F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +615,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
